--- a/STAT-SARS-CoV2-nPT-08.05.2020.xlsx
+++ b/STAT-SARS-CoV2-nPT-08.05.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edlindemann/Documents/--- Erik Eriksen ---/-- Research --/COVID 19/GITHUB/RPT_COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA641BF-00BD-2C44-AD65-E16CB8EE8E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327698CD-62B3-9B48-8B5F-D515D1E63A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16660" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="DGS - EKL &amp; VOST" sheetId="2" r:id="rId1"/>
@@ -748,7 +748,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +830,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,7 +1527,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1719,36 +1725,6 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1764,49 +1740,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1817,6 +1763,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21633,10 +21648,10 @@
   <dimension ref="A1:AG313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21650,37 +21665,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17" customHeight="1" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
     </row>
     <row r="2" spans="1:33" ht="43" customHeight="1" thickBot="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -21742,10 +21757,10 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
@@ -26547,67 +26562,67 @@
       <c r="B63" s="50">
         <v>60</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="109">
         <v>23271</v>
       </c>
-      <c r="D63" s="49">
+      <c r="D63" s="111">
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="109">
         <v>231616</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="109">
         <f t="shared" si="1"/>
         <v>4223</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="109">
         <v>1040</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="109">
         <f t="shared" si="2"/>
         <v>-28</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="109">
         <v>186</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="109">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="109">
         <v>1256</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="109">
         <v>20715</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="109">
         <v>29932</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="109">
         <v>203562</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="109">
         <v>19459</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="109">
         <v>880</v>
       </c>
-      <c r="Q63" s="13">
+      <c r="Q63" s="109">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R63" s="13">
+      <c r="R63" s="109">
         <v>1277</v>
       </c>
-      <c r="S63" s="13">
+      <c r="S63" s="109">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="T63" s="13">
+      <c r="T63" s="109">
         <v>4783</v>
       </c>
-      <c r="U63" s="13">
+      <c r="U63" s="109">
         <v>360195</v>
       </c>
     </row>
@@ -27252,7 +27267,7 @@
       <c r="U72" s="13">
         <v>470234</v>
       </c>
-      <c r="W72" s="108"/>
+      <c r="W72" s="88"/>
     </row>
     <row r="73" spans="1:23" ht="17" thickBot="1">
       <c r="A73" s="12">
@@ -36074,28 +36089,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17" customHeight="1" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="52" customHeight="1" thickBot="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -36130,10 +36145,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" thickBot="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="15" t="s">
         <v>137</v>
       </c>
@@ -43708,10 +43723,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomRight" activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43722,86 +43737,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="96"/>
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="86" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="86" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="86" t="s">
+      <c r="J1" s="96"/>
+      <c r="K1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="86" t="s">
+      <c r="L1" s="96"/>
+      <c r="M1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="94" t="s">
+      <c r="N1" s="97"/>
+      <c r="O1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="95"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="1:16" ht="18" thickBot="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="93" t="s">
+      <c r="O2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="93" t="s">
+      <c r="P2" s="78" t="s">
         <v>12</v>
       </c>
     </row>
@@ -43812,46 +43827,46 @@
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="83">
-        <v>0</v>
-      </c>
-      <c r="D3" s="84">
-        <v>0</v>
-      </c>
-      <c r="E3" s="85">
-        <v>0</v>
-      </c>
-      <c r="F3" s="84">
-        <v>0</v>
-      </c>
-      <c r="G3" s="85">
-        <v>0</v>
-      </c>
-      <c r="H3" s="84">
-        <v>0</v>
-      </c>
-      <c r="I3" s="85">
-        <v>0</v>
-      </c>
-      <c r="J3" s="84">
-        <v>0</v>
-      </c>
-      <c r="K3" s="85">
-        <v>0</v>
-      </c>
-      <c r="L3" s="84">
-        <v>0</v>
-      </c>
-      <c r="M3" s="85">
-        <v>0</v>
-      </c>
-      <c r="N3" s="84">
-        <v>0</v>
-      </c>
-      <c r="O3" s="85">
-        <v>0</v>
-      </c>
-      <c r="P3" s="84">
+      <c r="C3" s="73">
+        <v>0</v>
+      </c>
+      <c r="D3" s="74">
+        <v>0</v>
+      </c>
+      <c r="E3" s="75">
+        <v>0</v>
+      </c>
+      <c r="F3" s="74">
+        <v>0</v>
+      </c>
+      <c r="G3" s="75">
+        <v>0</v>
+      </c>
+      <c r="H3" s="74">
+        <v>0</v>
+      </c>
+      <c r="I3" s="75">
+        <v>0</v>
+      </c>
+      <c r="J3" s="74">
+        <v>0</v>
+      </c>
+      <c r="K3" s="75">
+        <v>0</v>
+      </c>
+      <c r="L3" s="74">
+        <v>0</v>
+      </c>
+      <c r="M3" s="75">
+        <v>0</v>
+      </c>
+      <c r="N3" s="74">
+        <v>0</v>
+      </c>
+      <c r="O3" s="75">
+        <v>0</v>
+      </c>
+      <c r="P3" s="74">
         <v>0</v>
       </c>
     </row>
@@ -46756,7 +46771,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="17" thickBot="1">
-      <c r="A62" s="12">
+      <c r="A62" s="110">
         <v>43946</v>
       </c>
       <c r="B62" s="50">
@@ -53268,17 +53283,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
     </row>
     <row r="2" spans="1:7" ht="20" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -61114,1588 +61129,1588 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="97">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="81">
         <v>1</v>
       </c>
-      <c r="C2" s="98">
+      <c r="C2" s="81">
         <v>2</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="81">
         <v>8</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="82">
         <v>43897</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="81">
         <v>5.0021531000000001</v>
       </c>
-      <c r="G2" s="98">
+      <c r="G2" s="81">
         <v>2.1764043000000002</v>
       </c>
-      <c r="H2" s="98">
+      <c r="H2" s="81">
         <v>9.4025379999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="97">
+      <c r="A3" s="80">
         <v>2</v>
       </c>
-      <c r="B3" s="98">
+      <c r="B3" s="81">
         <v>2</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="81">
         <v>3</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="81">
         <v>9</v>
       </c>
-      <c r="E3" s="99">
+      <c r="E3" s="82">
         <v>43898</v>
       </c>
-      <c r="F3" s="98">
+      <c r="F3" s="81">
         <v>4.5575650999999997</v>
       </c>
-      <c r="G3" s="98">
+      <c r="G3" s="81">
         <v>2.4970313000000002</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="81">
         <v>7.5803374999999997</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="97">
+      <c r="A4" s="80">
         <v>3</v>
       </c>
-      <c r="B4" s="98">
+      <c r="B4" s="81">
         <v>3</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="81">
         <v>4</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="81">
         <v>10</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="82">
         <v>43899</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="81">
         <v>3.6279284000000001</v>
       </c>
-      <c r="G4" s="98">
+      <c r="G4" s="81">
         <v>1.9911034999999999</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="81">
         <v>6.3730336999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="97">
+      <c r="A5" s="80">
         <v>4</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="81">
         <v>4</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="81">
         <v>5</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="81">
         <v>11</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="82">
         <v>43900</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="81">
         <v>2.4822225000000002</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="81">
         <v>1.3991917</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="81">
         <v>4.0067773000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="97">
+      <c r="A6" s="80">
         <v>5</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="81">
         <v>5</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="81">
         <v>6</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="81">
         <v>12</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="82">
         <v>43901</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="81">
         <v>2.6511111999999999</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="81">
         <v>1.7035279999999999</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="81">
         <v>3.9028646999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="97">
+      <c r="A7" s="80">
         <v>6</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="81">
         <v>6</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="81">
         <v>7</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="81">
         <v>13</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="82">
         <v>43902</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="81">
         <v>2.6700553</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="81">
         <v>1.8403609000000001</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="81">
         <v>3.7164459000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="97">
+      <c r="A8" s="80">
         <v>7</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="81">
         <v>7</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="81">
         <v>8</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="81">
         <v>14</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="82">
         <v>43903</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="81">
         <v>3.0318816000000002</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="81">
         <v>2.1698249000000001</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="81">
         <v>4.2048323999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="97">
+      <c r="A9" s="80">
         <v>8</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="81">
         <v>8</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="81">
         <v>9</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="81">
         <v>15</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="82">
         <v>43904</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="81">
         <v>3.4721921</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="81">
         <v>2.4475094999999998</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="81">
         <v>4.6868169000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="97">
+      <c r="A10" s="80">
         <v>9</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="81">
         <v>9</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="81">
         <v>10</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="81">
         <v>16</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="82">
         <v>43905</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="81">
         <v>3.7262455000000001</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="81">
         <v>2.4756507999999999</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="81">
         <v>5.2387192999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="97">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="81">
         <v>10</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="81">
         <v>11</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="81">
         <v>17</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="82">
         <v>43906</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="81">
         <v>3.5899033999999999</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="81">
         <v>2.3438488999999998</v>
       </c>
-      <c r="H11" s="98">
+      <c r="H11" s="81">
         <v>5.2265109000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="97">
+      <c r="A12" s="80">
         <v>11</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="81">
         <v>11</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="81">
         <v>12</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="81">
         <v>18</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="82">
         <v>43907</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="81">
         <v>3.5355930999999998</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="81">
         <v>2.3070309999999998</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="81">
         <v>5.2437392000000003</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="97">
+      <c r="A13" s="80">
         <v>12</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="81">
         <v>12</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="81">
         <v>13</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="81">
         <v>19</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="82">
         <v>43908</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="81">
         <v>3.5813085999999998</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="81">
         <v>2.3661846999999998</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="81">
         <v>5.3128393999999997</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="97">
+      <c r="A14" s="80">
         <v>13</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="81">
         <v>13</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="81">
         <v>14</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="81">
         <v>20</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="82">
         <v>43909</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="81">
         <v>3.1175828000000001</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="81">
         <v>2.0448080000000002</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="81">
         <v>4.4764622999999997</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="97">
+      <c r="A15" s="80">
         <v>14</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="81">
         <v>14</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="81">
         <v>15</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="81">
         <v>21</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="82">
         <v>43910</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="81">
         <v>2.9465431999999998</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="81">
         <v>1.9831185</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="81">
         <v>4.1124298000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="97">
+      <c r="A16" s="80">
         <v>15</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="81">
         <v>15</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="81">
         <v>16</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="81">
         <v>22</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="82">
         <v>43911</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="81">
         <v>2.6882495</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="81">
         <v>1.8750914000000001</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="81">
         <v>3.6615940999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="97">
+      <c r="A17" s="80">
         <v>16</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="81">
         <v>16</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="81">
         <v>17</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="81">
         <v>23</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="82">
         <v>43912</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="81">
         <v>2.4820058</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="81">
         <v>1.7759590999999999</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="81">
         <v>3.3150993</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="97">
+      <c r="A18" s="80">
         <v>17</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="81">
         <v>17</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="81">
         <v>18</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="81">
         <v>24</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="82">
         <v>43913</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="81">
         <v>2.5231246000000001</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="81">
         <v>1.8852378000000001</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="81">
         <v>3.2685393</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="97">
+      <c r="A19" s="80">
         <v>18</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="81">
         <v>18</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="81">
         <v>19</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="81">
         <v>25</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="82">
         <v>43914</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="81">
         <v>2.2059031999999998</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="81">
         <v>1.7131529999999999</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="81">
         <v>2.8414012</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="97">
+      <c r="A20" s="80">
         <v>19</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="81">
         <v>19</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="81">
         <v>20</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="81">
         <v>26</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="82">
         <v>43915</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="81">
         <v>2.1883968</v>
       </c>
-      <c r="G20" s="98">
+      <c r="G20" s="81">
         <v>1.7158883</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H20" s="81">
         <v>2.7827689000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="97">
+      <c r="A21" s="80">
         <v>20</v>
       </c>
-      <c r="B21" s="98">
+      <c r="B21" s="81">
         <v>20</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="81">
         <v>21</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="81">
         <v>27</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="82">
         <v>43916</v>
       </c>
-      <c r="F21" s="98">
+      <c r="F21" s="81">
         <v>2.0993075999999999</v>
       </c>
-      <c r="G21" s="98">
+      <c r="G21" s="81">
         <v>1.6536164</v>
       </c>
-      <c r="H21" s="98">
+      <c r="H21" s="81">
         <v>2.6135299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="97">
+      <c r="A22" s="80">
         <v>21</v>
       </c>
-      <c r="B22" s="98">
+      <c r="B22" s="81">
         <v>21</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="81">
         <v>22</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="81">
         <v>28</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="82">
         <v>43917</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="81">
         <v>2.0469126000000002</v>
       </c>
-      <c r="G22" s="98">
+      <c r="G22" s="81">
         <v>1.6336723</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="81">
         <v>2.5343091000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="97">
+      <c r="A23" s="80">
         <v>22</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="81">
         <v>22</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="81">
         <v>23</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="81">
         <v>29</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="82">
         <v>43918</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="81">
         <v>2.0533725999999999</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G23" s="81">
         <v>1.6575645000000001</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="81">
         <v>2.4931226</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="97">
+      <c r="A24" s="80">
         <v>23</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="81">
         <v>23</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="81">
         <v>24</v>
       </c>
-      <c r="D24" s="98">
+      <c r="D24" s="81">
         <v>30</v>
       </c>
-      <c r="E24" s="99">
+      <c r="E24" s="82">
         <v>43919</v>
       </c>
-      <c r="F24" s="98">
+      <c r="F24" s="81">
         <v>1.9445281999999999</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G24" s="81">
         <v>1.5725522999999999</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H24" s="81">
         <v>2.3543154999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="97">
+      <c r="A25" s="80">
         <v>24</v>
       </c>
-      <c r="B25" s="98">
+      <c r="B25" s="81">
         <v>24</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="81">
         <v>25</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="81">
         <v>31</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="82">
         <v>43920</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="81">
         <v>1.6383487000000001</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="81">
         <v>1.3212421999999999</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="81">
         <v>1.9662899</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="97">
+      <c r="A26" s="80">
         <v>25</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="81">
         <v>25</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="81">
         <v>26</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="81">
         <v>32</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="82">
         <v>43921</v>
       </c>
-      <c r="F26" s="98">
+      <c r="F26" s="81">
         <v>1.6591563</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="81">
         <v>1.4296993</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="81">
         <v>1.9431045</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="97">
+      <c r="A27" s="80">
         <v>26</v>
       </c>
-      <c r="B27" s="98">
+      <c r="B27" s="81">
         <v>26</v>
       </c>
-      <c r="C27" s="98">
+      <c r="C27" s="81">
         <v>27</v>
       </c>
-      <c r="D27" s="98">
+      <c r="D27" s="81">
         <v>33</v>
       </c>
-      <c r="E27" s="99">
+      <c r="E27" s="82">
         <v>43922</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="81">
         <v>1.5217232000000001</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="81">
         <v>1.3263039000000001</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="81">
         <v>1.7170349</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="97">
+      <c r="A28" s="80">
         <v>27</v>
       </c>
-      <c r="B28" s="98">
+      <c r="B28" s="81">
         <v>27</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="81">
         <v>28</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="81">
         <v>34</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="82">
         <v>43923</v>
       </c>
-      <c r="F28" s="98">
+      <c r="F28" s="81">
         <v>1.4222538</v>
       </c>
-      <c r="G28" s="98">
+      <c r="G28" s="81">
         <v>1.2574429</v>
       </c>
-      <c r="H28" s="98">
+      <c r="H28" s="81">
         <v>1.6241386</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="97">
+      <c r="A29" s="80">
         <v>28</v>
       </c>
-      <c r="B29" s="98">
+      <c r="B29" s="81">
         <v>28</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="81">
         <v>29</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="81">
         <v>35</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="82">
         <v>43924</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="81">
         <v>1.3256334999999999</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G29" s="81">
         <v>1.1997180999999999</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="81">
         <v>1.4603683999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="97">
+      <c r="A30" s="80">
         <v>29</v>
       </c>
-      <c r="B30" s="98">
+      <c r="B30" s="81">
         <v>29</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="81">
         <v>30</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D30" s="81">
         <v>36</v>
       </c>
-      <c r="E30" s="99">
+      <c r="E30" s="82">
         <v>43925</v>
       </c>
-      <c r="F30" s="98">
+      <c r="F30" s="81">
         <v>1.1690111999999999</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G30" s="81">
         <v>1.0724990000000001</v>
       </c>
-      <c r="H30" s="98">
+      <c r="H30" s="81">
         <v>1.2776468000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="97">
+      <c r="A31" s="80">
         <v>30</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="81">
         <v>30</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="81">
         <v>31</v>
       </c>
-      <c r="D31" s="98">
+      <c r="D31" s="81">
         <v>37</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="82">
         <v>43926</v>
       </c>
-      <c r="F31" s="98">
+      <c r="F31" s="81">
         <v>1.1037496</v>
       </c>
-      <c r="G31" s="98">
+      <c r="G31" s="81">
         <v>1.0326747000000001</v>
       </c>
-      <c r="H31" s="98">
+      <c r="H31" s="81">
         <v>1.172982</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="97">
+      <c r="A32" s="80">
         <v>31</v>
       </c>
-      <c r="B32" s="98">
+      <c r="B32" s="81">
         <v>31</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="81">
         <v>32</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="81">
         <v>38</v>
       </c>
-      <c r="E32" s="99">
+      <c r="E32" s="82">
         <v>43927</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="81">
         <v>1.0637365000000001</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="81">
         <v>1.0119007</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="81">
         <v>1.1190317000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="97">
+      <c r="A33" s="80">
         <v>32</v>
       </c>
-      <c r="B33" s="98">
+      <c r="B33" s="81">
         <v>32</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="81">
         <v>33</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="81">
         <v>39</v>
       </c>
-      <c r="E33" s="99">
+      <c r="E33" s="82">
         <v>43928</v>
       </c>
-      <c r="F33" s="98">
+      <c r="F33" s="81">
         <v>0.97975599999999996</v>
       </c>
-      <c r="G33" s="98">
+      <c r="G33" s="81">
         <v>0.93583559999999999</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="81">
         <v>1.0250173</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="97">
+      <c r="A34" s="80">
         <v>33</v>
       </c>
-      <c r="B34" s="98">
+      <c r="B34" s="81">
         <v>33</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="81">
         <v>34</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="81">
         <v>40</v>
       </c>
-      <c r="E34" s="99">
+      <c r="E34" s="82">
         <v>43929</v>
       </c>
-      <c r="F34" s="98">
+      <c r="F34" s="81">
         <v>0.95088930000000005</v>
       </c>
-      <c r="G34" s="98">
+      <c r="G34" s="81">
         <v>0.91532150000000001</v>
       </c>
-      <c r="H34" s="98">
+      <c r="H34" s="81">
         <v>0.98526879999999994</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="97">
+      <c r="A35" s="80">
         <v>34</v>
       </c>
-      <c r="B35" s="98">
+      <c r="B35" s="81">
         <v>34</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="81">
         <v>35</v>
       </c>
-      <c r="D35" s="98">
+      <c r="D35" s="81">
         <v>41</v>
       </c>
-      <c r="E35" s="99">
+      <c r="E35" s="82">
         <v>43930</v>
       </c>
-      <c r="F35" s="98">
+      <c r="F35" s="81">
         <v>0.95762230000000004</v>
       </c>
-      <c r="G35" s="98">
+      <c r="G35" s="81">
         <v>0.91833949999999998</v>
       </c>
-      <c r="H35" s="98">
+      <c r="H35" s="81">
         <v>0.99853990000000004</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="97">
+      <c r="A36" s="80">
         <v>35</v>
       </c>
-      <c r="B36" s="98">
+      <c r="B36" s="81">
         <v>35</v>
       </c>
-      <c r="C36" s="98">
+      <c r="C36" s="81">
         <v>36</v>
       </c>
-      <c r="D36" s="98">
+      <c r="D36" s="81">
         <v>42</v>
       </c>
-      <c r="E36" s="99">
+      <c r="E36" s="82">
         <v>43931</v>
       </c>
-      <c r="F36" s="98">
+      <c r="F36" s="81">
         <v>1.0972601</v>
       </c>
-      <c r="G36" s="98">
+      <c r="G36" s="81">
         <v>1.0560844</v>
       </c>
-      <c r="H36" s="98">
+      <c r="H36" s="81">
         <v>1.1371256000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="97">
+      <c r="A37" s="80">
         <v>36</v>
       </c>
-      <c r="B37" s="98">
+      <c r="B37" s="81">
         <v>36</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="81">
         <v>37</v>
       </c>
-      <c r="D37" s="98">
+      <c r="D37" s="81">
         <v>43</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="82">
         <v>43932</v>
       </c>
-      <c r="F37" s="98">
+      <c r="F37" s="81">
         <v>1.0709795</v>
       </c>
-      <c r="G37" s="98">
+      <c r="G37" s="81">
         <v>1.0380206000000001</v>
       </c>
-      <c r="H37" s="98">
+      <c r="H37" s="81">
         <v>1.1023537999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="97">
+      <c r="A38" s="80">
         <v>37</v>
       </c>
-      <c r="B38" s="98">
+      <c r="B38" s="81">
         <v>37</v>
       </c>
-      <c r="C38" s="98">
+      <c r="C38" s="81">
         <v>38</v>
       </c>
-      <c r="D38" s="98">
+      <c r="D38" s="81">
         <v>44</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="82">
         <v>43933</v>
       </c>
-      <c r="F38" s="98">
+      <c r="F38" s="81">
         <v>1.0259369</v>
       </c>
-      <c r="G38" s="98">
+      <c r="G38" s="81">
         <v>0.99717699999999998</v>
       </c>
-      <c r="H38" s="98">
+      <c r="H38" s="81">
         <v>1.0548515000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="97">
+      <c r="A39" s="80">
         <v>38</v>
       </c>
-      <c r="B39" s="98">
+      <c r="B39" s="81">
         <v>38</v>
       </c>
-      <c r="C39" s="98">
+      <c r="C39" s="81">
         <v>39</v>
       </c>
-      <c r="D39" s="98">
+      <c r="D39" s="81">
         <v>45</v>
       </c>
-      <c r="E39" s="99">
+      <c r="E39" s="82">
         <v>43934</v>
       </c>
-      <c r="F39" s="98">
+      <c r="F39" s="81">
         <v>0.99578679999999997</v>
       </c>
-      <c r="G39" s="98">
+      <c r="G39" s="81">
         <v>0.96804190000000001</v>
       </c>
-      <c r="H39" s="98">
+      <c r="H39" s="81">
         <v>1.0256677000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="97">
+      <c r="A40" s="80">
         <v>39</v>
       </c>
-      <c r="B40" s="98">
+      <c r="B40" s="81">
         <v>39</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="81">
         <v>40</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="81">
         <v>46</v>
       </c>
-      <c r="E40" s="99">
+      <c r="E40" s="82">
         <v>43935</v>
       </c>
-      <c r="F40" s="98">
+      <c r="F40" s="81">
         <v>0.95274420000000004</v>
       </c>
-      <c r="G40" s="98">
+      <c r="G40" s="81">
         <v>0.92683459999999995</v>
       </c>
-      <c r="H40" s="98">
+      <c r="H40" s="81">
         <v>0.97965939999999996</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="97">
+      <c r="A41" s="80">
         <v>40</v>
       </c>
-      <c r="B41" s="98">
+      <c r="B41" s="81">
         <v>40</v>
       </c>
-      <c r="C41" s="98">
+      <c r="C41" s="81">
         <v>41</v>
       </c>
-      <c r="D41" s="98">
+      <c r="D41" s="81">
         <v>47</v>
       </c>
-      <c r="E41" s="99">
+      <c r="E41" s="82">
         <v>43936</v>
       </c>
-      <c r="F41" s="98">
+      <c r="F41" s="81">
         <v>0.94559159999999998</v>
       </c>
-      <c r="G41" s="98">
+      <c r="G41" s="81">
         <v>0.91836329999999999</v>
       </c>
-      <c r="H41" s="98">
+      <c r="H41" s="81">
         <v>0.97312010000000004</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="97">
+      <c r="A42" s="80">
         <v>41</v>
       </c>
-      <c r="B42" s="98">
+      <c r="B42" s="81">
         <v>41</v>
       </c>
-      <c r="C42" s="98">
+      <c r="C42" s="81">
         <v>42</v>
       </c>
-      <c r="D42" s="98">
+      <c r="D42" s="81">
         <v>48</v>
       </c>
-      <c r="E42" s="99">
+      <c r="E42" s="82">
         <v>43937</v>
       </c>
-      <c r="F42" s="98">
+      <c r="F42" s="81">
         <v>0.9411197</v>
       </c>
-      <c r="G42" s="98">
+      <c r="G42" s="81">
         <v>0.91095119999999996</v>
       </c>
-      <c r="H42" s="98">
+      <c r="H42" s="81">
         <v>0.97052110000000003</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="97">
+      <c r="A43" s="80">
         <v>42</v>
       </c>
-      <c r="B43" s="98">
+      <c r="B43" s="81">
         <v>42</v>
       </c>
-      <c r="C43" s="98">
+      <c r="C43" s="81">
         <v>43</v>
       </c>
-      <c r="D43" s="98">
+      <c r="D43" s="81">
         <v>49</v>
       </c>
-      <c r="E43" s="99">
+      <c r="E43" s="82">
         <v>43938</v>
       </c>
-      <c r="F43" s="98">
+      <c r="F43" s="81">
         <v>0.69101469999999998</v>
       </c>
-      <c r="G43" s="98">
+      <c r="G43" s="81">
         <v>0.66708000000000001</v>
       </c>
-      <c r="H43" s="98">
+      <c r="H43" s="81">
         <v>0.71611499999999995</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="97">
+      <c r="A44" s="80">
         <v>43</v>
       </c>
-      <c r="B44" s="98">
+      <c r="B44" s="81">
         <v>43</v>
       </c>
-      <c r="C44" s="98">
+      <c r="C44" s="81">
         <v>44</v>
       </c>
-      <c r="D44" s="98">
+      <c r="D44" s="81">
         <v>50</v>
       </c>
-      <c r="E44" s="99">
+      <c r="E44" s="82">
         <v>43939</v>
       </c>
-      <c r="F44" s="98">
+      <c r="F44" s="81">
         <v>0.74398549999999997</v>
       </c>
-      <c r="G44" s="98">
+      <c r="G44" s="81">
         <v>0.70143809999999995</v>
       </c>
-      <c r="H44" s="98">
+      <c r="H44" s="81">
         <v>0.78733940000000002</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="97">
+      <c r="A45" s="80">
         <v>44</v>
       </c>
-      <c r="B45" s="98">
+      <c r="B45" s="81">
         <v>44</v>
       </c>
-      <c r="C45" s="98">
+      <c r="C45" s="81">
         <v>45</v>
       </c>
-      <c r="D45" s="98">
+      <c r="D45" s="81">
         <v>51</v>
       </c>
-      <c r="E45" s="99">
+      <c r="E45" s="82">
         <v>43940</v>
       </c>
-      <c r="F45" s="98">
+      <c r="F45" s="81">
         <v>0.7679937</v>
       </c>
-      <c r="G45" s="98">
+      <c r="G45" s="81">
         <v>0.71117240000000004</v>
       </c>
-      <c r="H45" s="98">
+      <c r="H45" s="81">
         <v>0.82864760000000004</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="97">
+      <c r="A46" s="80">
         <v>45</v>
       </c>
-      <c r="B46" s="98">
+      <c r="B46" s="81">
         <v>45</v>
       </c>
-      <c r="C46" s="98">
+      <c r="C46" s="81">
         <v>46</v>
       </c>
-      <c r="D46" s="98">
+      <c r="D46" s="81">
         <v>52</v>
       </c>
-      <c r="E46" s="99">
+      <c r="E46" s="82">
         <v>43941</v>
       </c>
-      <c r="F46" s="98">
+      <c r="F46" s="81">
         <v>0.8809186</v>
       </c>
-      <c r="G46" s="98">
+      <c r="G46" s="81">
         <v>0.80956640000000002</v>
       </c>
-      <c r="H46" s="98">
+      <c r="H46" s="81">
         <v>0.95172509999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="97">
+      <c r="A47" s="80">
         <v>46</v>
       </c>
-      <c r="B47" s="98">
+      <c r="B47" s="81">
         <v>46</v>
       </c>
-      <c r="C47" s="98">
+      <c r="C47" s="81">
         <v>47</v>
       </c>
-      <c r="D47" s="98">
+      <c r="D47" s="81">
         <v>53</v>
       </c>
-      <c r="E47" s="99">
+      <c r="E47" s="82">
         <v>43942</v>
       </c>
-      <c r="F47" s="98">
+      <c r="F47" s="81">
         <v>0.92096960000000005</v>
       </c>
-      <c r="G47" s="98">
+      <c r="G47" s="81">
         <v>0.86470939999999996</v>
       </c>
-      <c r="H47" s="98">
+      <c r="H47" s="81">
         <v>0.980078</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="97">
+      <c r="A48" s="80">
         <v>47</v>
       </c>
-      <c r="B48" s="98">
+      <c r="B48" s="81">
         <v>47</v>
       </c>
-      <c r="C48" s="98">
+      <c r="C48" s="81">
         <v>48</v>
       </c>
-      <c r="D48" s="98">
+      <c r="D48" s="81">
         <v>54</v>
       </c>
-      <c r="E48" s="99">
+      <c r="E48" s="82">
         <v>43943</v>
       </c>
-      <c r="F48" s="98">
+      <c r="F48" s="81">
         <v>0.93808570000000002</v>
       </c>
-      <c r="G48" s="98">
+      <c r="G48" s="81">
         <v>0.89397680000000002</v>
       </c>
-      <c r="H48" s="98">
+      <c r="H48" s="81">
         <v>0.98441749999999995</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="97">
+      <c r="A49" s="80">
         <v>48</v>
       </c>
-      <c r="B49" s="98">
+      <c r="B49" s="81">
         <v>48</v>
       </c>
-      <c r="C49" s="98">
+      <c r="C49" s="81">
         <v>49</v>
       </c>
-      <c r="D49" s="98">
+      <c r="D49" s="81">
         <v>55</v>
       </c>
-      <c r="E49" s="99">
+      <c r="E49" s="82">
         <v>43944</v>
       </c>
-      <c r="F49" s="98">
+      <c r="F49" s="81">
         <v>0.86495029999999995</v>
       </c>
-      <c r="G49" s="98">
+      <c r="G49" s="81">
         <v>0.82808400000000004</v>
       </c>
-      <c r="H49" s="98">
+      <c r="H49" s="81">
         <v>0.90245940000000002</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="97">
+      <c r="A50" s="80">
         <v>49</v>
       </c>
-      <c r="B50" s="98">
+      <c r="B50" s="81">
         <v>49</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="81">
         <v>50</v>
       </c>
-      <c r="D50" s="98">
+      <c r="D50" s="81">
         <v>56</v>
       </c>
-      <c r="E50" s="99">
+      <c r="E50" s="82">
         <v>43945</v>
       </c>
-      <c r="F50" s="98">
+      <c r="F50" s="81">
         <v>0.94871380000000005</v>
       </c>
-      <c r="G50" s="98">
+      <c r="G50" s="81">
         <v>0.91270410000000002</v>
       </c>
-      <c r="H50" s="98">
+      <c r="H50" s="81">
         <v>0.98432549999999996</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="97">
+      <c r="A51" s="80">
         <v>50</v>
       </c>
-      <c r="B51" s="98">
+      <c r="B51" s="81">
         <v>50</v>
       </c>
-      <c r="C51" s="98">
+      <c r="C51" s="81">
         <v>51</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D51" s="81">
         <v>57</v>
       </c>
-      <c r="E51" s="99">
+      <c r="E51" s="82">
         <v>43946</v>
       </c>
-      <c r="F51" s="98">
+      <c r="F51" s="81">
         <v>0.95103040000000005</v>
       </c>
-      <c r="G51" s="98">
+      <c r="G51" s="81">
         <v>0.91306699999999996</v>
       </c>
-      <c r="H51" s="98">
+      <c r="H51" s="81">
         <v>0.9886954</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="97">
+      <c r="A52" s="80">
         <v>51</v>
       </c>
-      <c r="B52" s="98">
+      <c r="B52" s="81">
         <v>51</v>
       </c>
-      <c r="C52" s="98">
+      <c r="C52" s="81">
         <v>52</v>
       </c>
-      <c r="D52" s="98">
+      <c r="D52" s="81">
         <v>58</v>
       </c>
-      <c r="E52" s="99">
+      <c r="E52" s="82">
         <v>43947</v>
       </c>
-      <c r="F52" s="98">
+      <c r="F52" s="81">
         <v>0.95044309999999999</v>
       </c>
-      <c r="G52" s="98">
+      <c r="G52" s="81">
         <v>0.91631839999999998</v>
       </c>
-      <c r="H52" s="98">
+      <c r="H52" s="81">
         <v>0.98555000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="97">
+      <c r="A53" s="80">
         <v>52</v>
       </c>
-      <c r="B53" s="98">
+      <c r="B53" s="81">
         <v>52</v>
       </c>
-      <c r="C53" s="98">
+      <c r="C53" s="81">
         <v>53</v>
       </c>
-      <c r="D53" s="98">
+      <c r="D53" s="81">
         <v>59</v>
       </c>
-      <c r="E53" s="99">
+      <c r="E53" s="82">
         <v>43948</v>
       </c>
-      <c r="F53" s="98">
+      <c r="F53" s="81">
         <v>0.83244569999999996</v>
       </c>
-      <c r="G53" s="98">
+      <c r="G53" s="81">
         <v>0.79988700000000001</v>
       </c>
-      <c r="H53" s="98">
+      <c r="H53" s="81">
         <v>0.86312619999999995</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="97">
+      <c r="A54" s="80">
         <v>53</v>
       </c>
-      <c r="B54" s="98">
+      <c r="B54" s="81">
         <v>53</v>
       </c>
-      <c r="C54" s="98">
+      <c r="C54" s="81">
         <v>54</v>
       </c>
-      <c r="D54" s="98">
+      <c r="D54" s="81">
         <v>60</v>
       </c>
-      <c r="E54" s="99">
+      <c r="E54" s="82">
         <v>43949</v>
       </c>
-      <c r="F54" s="98">
+      <c r="F54" s="81">
         <v>0.7893635</v>
       </c>
-      <c r="G54" s="98">
+      <c r="G54" s="81">
         <v>0.7572217</v>
       </c>
-      <c r="H54" s="98">
+      <c r="H54" s="81">
         <v>0.81955529999999999</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="97">
+      <c r="A55" s="80">
         <v>54</v>
       </c>
-      <c r="B55" s="98">
+      <c r="B55" s="81">
         <v>54</v>
       </c>
-      <c r="C55" s="98">
+      <c r="C55" s="81">
         <v>55</v>
       </c>
-      <c r="D55" s="98">
+      <c r="D55" s="81">
         <v>61</v>
       </c>
-      <c r="E55" s="99">
+      <c r="E55" s="82">
         <v>43950</v>
       </c>
-      <c r="F55" s="98">
+      <c r="F55" s="81">
         <v>0.701098</v>
       </c>
-      <c r="G55" s="98">
+      <c r="G55" s="81">
         <v>0.66395930000000003</v>
       </c>
-      <c r="H55" s="98">
+      <c r="H55" s="81">
         <v>0.73717080000000001</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="97">
+      <c r="A56" s="80">
         <v>55</v>
       </c>
-      <c r="B56" s="98">
+      <c r="B56" s="81">
         <v>55</v>
       </c>
-      <c r="C56" s="98">
+      <c r="C56" s="81">
         <v>56</v>
       </c>
-      <c r="D56" s="98">
+      <c r="D56" s="81">
         <v>62</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="82">
         <v>43951</v>
       </c>
-      <c r="F56" s="98">
+      <c r="F56" s="81">
         <v>0.78967019999999999</v>
       </c>
-      <c r="G56" s="98">
+      <c r="G56" s="81">
         <v>0.73691680000000004</v>
       </c>
-      <c r="H56" s="98">
+      <c r="H56" s="81">
         <v>0.84294069999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="97">
+      <c r="A57" s="80">
         <v>56</v>
       </c>
-      <c r="B57" s="98">
+      <c r="B57" s="81">
         <v>56</v>
       </c>
-      <c r="C57" s="98">
+      <c r="C57" s="81">
         <v>57</v>
       </c>
-      <c r="D57" s="98">
+      <c r="D57" s="81">
         <v>63</v>
       </c>
-      <c r="E57" s="99">
+      <c r="E57" s="82">
         <v>43952</v>
       </c>
-      <c r="F57" s="98">
+      <c r="F57" s="81">
         <v>0.69659260000000001</v>
       </c>
-      <c r="G57" s="98">
+      <c r="G57" s="81">
         <v>0.64215440000000001</v>
       </c>
-      <c r="H57" s="98">
+      <c r="H57" s="81">
         <v>0.75700429999999996</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="97">
+      <c r="A58" s="80">
         <v>57</v>
       </c>
-      <c r="B58" s="98">
+      <c r="B58" s="81">
         <v>57</v>
       </c>
-      <c r="C58" s="98">
+      <c r="C58" s="81">
         <v>58</v>
       </c>
-      <c r="D58" s="98">
+      <c r="D58" s="81">
         <v>64</v>
       </c>
-      <c r="E58" s="99">
+      <c r="E58" s="82">
         <v>43953</v>
       </c>
-      <c r="F58" s="98">
+      <c r="F58" s="81">
         <v>0.58620850000000002</v>
       </c>
-      <c r="G58" s="98">
+      <c r="G58" s="81">
         <v>0.53537029999999997</v>
       </c>
-      <c r="H58" s="98">
+      <c r="H58" s="81">
         <v>0.64308869999999996</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="97">
+      <c r="A59" s="80">
         <v>58</v>
       </c>
-      <c r="B59" s="98">
+      <c r="B59" s="81">
         <v>58</v>
       </c>
-      <c r="C59" s="98">
+      <c r="C59" s="81">
         <v>59</v>
       </c>
-      <c r="D59" s="98">
+      <c r="D59" s="81">
         <v>65</v>
       </c>
-      <c r="E59" s="99">
+      <c r="E59" s="82">
         <v>43954</v>
       </c>
-      <c r="F59" s="98">
+      <c r="F59" s="81">
         <v>0.49946950000000001</v>
       </c>
-      <c r="G59" s="98">
+      <c r="G59" s="81">
         <v>0.45056980000000002</v>
       </c>
-      <c r="H59" s="98">
+      <c r="H59" s="81">
         <v>0.55053730000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="97">
+      <c r="A60" s="80">
         <v>59</v>
       </c>
-      <c r="B60" s="98">
+      <c r="B60" s="81">
         <v>59</v>
       </c>
-      <c r="C60" s="98">
+      <c r="C60" s="81">
         <v>60</v>
       </c>
-      <c r="D60" s="98">
+      <c r="D60" s="81">
         <v>66</v>
       </c>
-      <c r="E60" s="99">
+      <c r="E60" s="82">
         <v>43955</v>
       </c>
-      <c r="F60" s="98">
+      <c r="F60" s="81">
         <v>0.58323009999999997</v>
       </c>
-      <c r="G60" s="98">
+      <c r="G60" s="81">
         <v>0.51504490000000003</v>
       </c>
-      <c r="H60" s="98">
+      <c r="H60" s="81">
         <v>0.66328390000000004</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="97">
+      <c r="A61" s="80">
         <v>60</v>
       </c>
-      <c r="B61" s="98">
+      <c r="B61" s="81">
         <v>60</v>
       </c>
-      <c r="C61" s="98">
+      <c r="C61" s="81">
         <v>61</v>
       </c>
-      <c r="D61" s="98">
+      <c r="D61" s="81">
         <v>67</v>
       </c>
-      <c r="E61" s="99">
+      <c r="E61" s="82">
         <v>43956</v>
       </c>
-      <c r="F61" s="98">
+      <c r="F61" s="81">
         <v>0.6038829</v>
       </c>
-      <c r="G61" s="98">
+      <c r="G61" s="81">
         <v>0.52366630000000003</v>
       </c>
-      <c r="H61" s="98">
+      <c r="H61" s="81">
         <v>0.6898128</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="97">
+      <c r="A62" s="80">
         <v>61</v>
       </c>
-      <c r="B62" s="98">
+      <c r="B62" s="81">
         <v>61</v>
       </c>
-      <c r="C62" s="98">
+      <c r="C62" s="81">
         <v>62</v>
       </c>
-      <c r="D62" s="98">
+      <c r="D62" s="81">
         <v>68</v>
       </c>
-      <c r="E62" s="99">
+      <c r="E62" s="82">
         <v>43957</v>
       </c>
-      <c r="F62" s="98">
+      <c r="F62" s="81">
         <v>0.80532440000000005</v>
       </c>
-      <c r="G62" s="98">
+      <c r="G62" s="81">
         <v>0.71458319999999997</v>
       </c>
-      <c r="H62" s="98">
+      <c r="H62" s="81">
         <v>0.92176559999999996</v>
       </c>
     </row>
@@ -65104,9 +65119,9 @@
   <cols>
     <col min="7" max="7" width="5.1640625" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="103" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="103" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="103" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="83" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="5.1640625" customWidth="1"/>
     <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="5.1640625" customWidth="1"/>
@@ -65145,7 +65160,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17" thickBot="1">
-      <c r="A2" s="96">
+      <c r="A2" s="79">
         <v>43891</v>
       </c>
       <c r="B2" t="s">
@@ -65169,22 +65184,22 @@
       <c r="O2" t="s">
         <v>154</v>
       </c>
-      <c r="R2" s="100" t="s">
+      <c r="R2" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="101"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="104" t="s">
+      <c r="S2" s="107"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="102"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="96">
+      <c r="A3" s="79">
         <v>43892</v>
       </c>
       <c r="B3" t="s">
@@ -65208,7 +65223,7 @@
       <c r="T3">
         <v>233</v>
       </c>
-      <c r="U3" s="105">
+      <c r="U3" s="85">
         <v>19</v>
       </c>
       <c r="V3">
@@ -65226,7 +65241,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" thickBot="1">
-      <c r="A4" s="96">
+      <c r="A4" s="79">
         <v>43893</v>
       </c>
       <c r="B4" t="s">
@@ -65253,7 +65268,7 @@
       <c r="T4">
         <v>271</v>
       </c>
-      <c r="U4" s="106">
+      <c r="U4" s="86">
         <v>2</v>
       </c>
       <c r="V4">
@@ -65271,7 +65286,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="17" thickBot="1">
-      <c r="A5" s="96">
+      <c r="A5" s="79">
         <v>43894</v>
       </c>
       <c r="B5" t="s">
@@ -65286,11 +65301,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
       <c r="N5">
         <v>3.58</v>
       </c>
@@ -65303,7 +65318,7 @@
       <c r="T5">
         <v>337</v>
       </c>
-      <c r="U5" s="106">
+      <c r="U5" s="86">
         <v>31</v>
       </c>
       <c r="V5">
@@ -65321,7 +65336,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="96">
+      <c r="A6" s="79">
         <v>43895</v>
       </c>
       <c r="B6" t="s">
@@ -65336,13 +65351,13 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="83" t="s">
         <v>159</v>
       </c>
       <c r="N6">
@@ -65357,7 +65372,7 @@
       <c r="T6">
         <v>405</v>
       </c>
-      <c r="U6" s="106">
+      <c r="U6" s="86">
         <v>51</v>
       </c>
       <c r="V6">
@@ -65375,7 +65390,7 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="96">
+      <c r="A7" s="79">
         <v>43896</v>
       </c>
       <c r="B7" t="s">
@@ -65390,13 +65405,13 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="83">
         <v>2.27</v>
       </c>
-      <c r="J7" s="103">
+      <c r="J7" s="83">
         <v>2.17</v>
       </c>
-      <c r="K7" s="103">
+      <c r="K7" s="83">
         <v>2.36</v>
       </c>
       <c r="N7">
@@ -65411,7 +65426,7 @@
       <c r="T7">
         <v>521</v>
       </c>
-      <c r="U7" s="106">
+      <c r="U7" s="86">
         <v>29</v>
       </c>
       <c r="V7">
@@ -65429,7 +65444,7 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="96">
+      <c r="A8" s="79">
         <v>43897</v>
       </c>
       <c r="B8" t="s">
@@ -65444,13 +65459,13 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="83">
         <v>2.6</v>
       </c>
-      <c r="J8" s="103">
+      <c r="J8" s="83">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="83">
         <v>2.69</v>
       </c>
       <c r="N8">
@@ -65465,7 +65480,7 @@
       <c r="T8">
         <v>691</v>
       </c>
-      <c r="U8" s="106">
+      <c r="U8" s="86">
         <v>37</v>
       </c>
       <c r="V8">
@@ -65483,7 +65498,7 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="96">
+      <c r="A9" s="79">
         <v>43898</v>
       </c>
       <c r="B9" t="s">
@@ -65498,13 +65513,13 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="83">
         <v>2.75</v>
       </c>
-      <c r="J9" s="103">
+      <c r="J9" s="83">
         <v>2.65</v>
       </c>
-      <c r="K9" s="103">
+      <c r="K9" s="83">
         <v>2.84</v>
       </c>
       <c r="N9">
@@ -65519,7 +65534,7 @@
       <c r="T9">
         <v>913</v>
       </c>
-      <c r="U9" s="106">
+      <c r="U9" s="86">
         <v>66</v>
       </c>
       <c r="V9">
@@ -65537,7 +65552,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="96">
+      <c r="A10" s="79">
         <v>43899</v>
       </c>
       <c r="B10" t="s">
@@ -65552,13 +65567,13 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="83">
         <v>3.21</v>
       </c>
-      <c r="J10" s="103">
+      <c r="J10" s="83">
         <v>3.12</v>
       </c>
-      <c r="K10" s="103">
+      <c r="K10" s="83">
         <v>3.32</v>
       </c>
       <c r="N10">
@@ -65573,7 +65588,7 @@
       <c r="T10">
         <v>1287</v>
       </c>
-      <c r="U10" s="106">
+      <c r="U10" s="86">
         <v>220</v>
       </c>
       <c r="V10">
@@ -65591,7 +65606,7 @@
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="96">
+      <c r="A11" s="79">
         <v>43900</v>
       </c>
       <c r="B11" t="s">
@@ -65606,13 +65621,13 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="83">
         <v>3.36</v>
       </c>
-      <c r="J11" s="103">
+      <c r="J11" s="83">
         <v>3.27</v>
       </c>
-      <c r="K11" s="103">
+      <c r="K11" s="83">
         <v>3.46</v>
       </c>
       <c r="N11">
@@ -65627,7 +65642,7 @@
       <c r="T11">
         <v>1737</v>
       </c>
-      <c r="U11" s="106">
+      <c r="U11" s="86">
         <v>188</v>
       </c>
       <c r="V11">
@@ -65645,7 +65660,7 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="96">
+      <c r="A12" s="79">
         <v>43901</v>
       </c>
       <c r="B12" t="s">
@@ -65660,13 +65675,13 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="I12" s="103">
+      <c r="I12" s="83">
         <v>3.34</v>
       </c>
-      <c r="J12" s="103">
+      <c r="J12" s="83">
         <v>3.26</v>
       </c>
-      <c r="K12" s="103">
+      <c r="K12" s="83">
         <v>3.41</v>
       </c>
       <c r="N12">
@@ -65681,7 +65696,7 @@
       <c r="T12">
         <v>2289</v>
       </c>
-      <c r="U12" s="106">
+      <c r="U12" s="86">
         <v>129</v>
       </c>
       <c r="V12">
@@ -65695,7 +65710,7 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="96">
+      <c r="A13" s="79">
         <v>43902</v>
       </c>
       <c r="B13" t="s">
@@ -65710,13 +65725,13 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="I13" s="103">
+      <c r="I13" s="83">
         <v>3.15</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="83">
         <v>3.09</v>
       </c>
-      <c r="K13" s="103">
+      <c r="K13" s="83">
         <v>3.2</v>
       </c>
       <c r="N13">
@@ -65731,7 +65746,7 @@
       <c r="T13">
         <v>2856</v>
       </c>
-      <c r="U13" s="106">
+      <c r="U13" s="86">
         <v>241</v>
       </c>
       <c r="V13">
@@ -65745,7 +65760,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="96">
+      <c r="A14" s="79">
         <v>43903</v>
       </c>
       <c r="B14" t="s">
@@ -65760,13 +65775,13 @@
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="83">
         <v>2.7</v>
       </c>
-      <c r="J14" s="103">
+      <c r="J14" s="83">
         <v>2.66</v>
       </c>
-      <c r="K14" s="103">
+      <c r="K14" s="83">
         <v>2.75</v>
       </c>
       <c r="N14">
@@ -65781,7 +65796,7 @@
       <c r="T14">
         <v>3456</v>
       </c>
-      <c r="U14" s="106">
+      <c r="U14" s="86">
         <v>136</v>
       </c>
       <c r="V14">
@@ -65795,7 +65810,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="96">
+      <c r="A15" s="79">
         <v>43904</v>
       </c>
       <c r="B15" t="s">
@@ -65810,13 +65825,13 @@
       <c r="E15">
         <v>9</v>
       </c>
-      <c r="I15" s="103">
+      <c r="I15" s="83">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J15" s="103">
+      <c r="J15" s="83">
         <v>2.2400000000000002</v>
       </c>
-      <c r="K15" s="103">
+      <c r="K15" s="83">
         <v>2.31</v>
       </c>
       <c r="N15">
@@ -65831,7 +65846,7 @@
       <c r="T15">
         <v>3936</v>
       </c>
-      <c r="U15" s="106">
+      <c r="U15" s="86">
         <v>281</v>
       </c>
       <c r="V15">
@@ -65845,7 +65860,7 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="96">
+      <c r="A16" s="79">
         <v>43905</v>
       </c>
       <c r="B16" t="s">
@@ -65860,13 +65875,13 @@
       <c r="E16">
         <v>11</v>
       </c>
-      <c r="I16" s="103">
+      <c r="I16" s="83">
         <v>1.89</v>
       </c>
-      <c r="J16" s="103">
+      <c r="J16" s="83">
         <v>1.86</v>
       </c>
-      <c r="K16" s="103">
+      <c r="K16" s="83">
         <v>1.91</v>
       </c>
       <c r="N16">
@@ -65881,7 +65896,7 @@
       <c r="T16">
         <v>4304</v>
       </c>
-      <c r="U16" s="106">
+      <c r="U16" s="86">
         <v>451</v>
       </c>
       <c r="V16">
@@ -65895,7 +65910,7 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="96">
+      <c r="A17" s="79">
         <v>43906</v>
       </c>
       <c r="B17" t="s">
@@ -65910,13 +65925,13 @@
       <c r="E17">
         <v>17</v>
       </c>
-      <c r="I17" s="103">
+      <c r="I17" s="83">
         <v>1.72</v>
       </c>
-      <c r="J17" s="103">
+      <c r="J17" s="83">
         <v>1.7</v>
       </c>
-      <c r="K17" s="103">
+      <c r="K17" s="83">
         <v>1.74</v>
       </c>
       <c r="N17">
@@ -65931,7 +65946,7 @@
       <c r="T17">
         <v>4907</v>
       </c>
-      <c r="U17" s="106">
+      <c r="U17" s="86">
         <v>170</v>
       </c>
       <c r="V17">
@@ -65945,7 +65960,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="96">
+      <c r="A18" s="79">
         <v>43907</v>
       </c>
       <c r="B18" t="s">
@@ -65960,13 +65975,13 @@
       <c r="E18">
         <v>24</v>
       </c>
-      <c r="I18" s="103">
+      <c r="I18" s="83">
         <v>1.49</v>
       </c>
-      <c r="J18" s="103">
+      <c r="J18" s="83">
         <v>1.47</v>
       </c>
-      <c r="K18" s="103">
+      <c r="K18" s="83">
         <v>1.5</v>
       </c>
       <c r="N18">
@@ -65981,7 +65996,7 @@
       <c r="T18">
         <v>5135</v>
       </c>
-      <c r="U18" s="106">
+      <c r="U18" s="86">
         <v>1597</v>
       </c>
       <c r="V18">
@@ -65995,7 +66010,7 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="96">
+      <c r="A19" s="79">
         <v>43908</v>
       </c>
       <c r="B19" t="s">
@@ -66010,13 +66025,13 @@
       <c r="E19">
         <v>28</v>
       </c>
-      <c r="I19" s="103">
+      <c r="I19" s="83">
         <v>1.36</v>
       </c>
-      <c r="J19" s="103">
+      <c r="J19" s="83">
         <v>1.35</v>
       </c>
-      <c r="K19" s="103">
+      <c r="K19" s="83">
         <v>1.38</v>
       </c>
       <c r="N19">
@@ -66031,7 +66046,7 @@
       <c r="T19">
         <v>5352</v>
       </c>
-      <c r="U19" s="106">
+      <c r="U19" s="86">
         <v>910</v>
       </c>
       <c r="V19">
@@ -66045,7 +66060,7 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="96">
+      <c r="A20" s="79">
         <v>43909</v>
       </c>
       <c r="B20" t="s">
@@ -66060,13 +66075,13 @@
       <c r="E20">
         <v>44</v>
       </c>
-      <c r="I20" s="103">
+      <c r="I20" s="83">
         <v>1.25</v>
       </c>
-      <c r="J20" s="103">
+      <c r="J20" s="83">
         <v>1.23</v>
       </c>
-      <c r="K20" s="103">
+      <c r="K20" s="83">
         <v>1.26</v>
       </c>
       <c r="N20">
@@ -66081,7 +66096,7 @@
       <c r="T20">
         <v>5368</v>
       </c>
-      <c r="U20" s="106">
+      <c r="U20" s="86">
         <v>1210</v>
       </c>
       <c r="V20">
@@ -66095,7 +66110,7 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="96">
+      <c r="A21" s="79">
         <v>43910</v>
       </c>
       <c r="B21" t="s">
@@ -66110,13 +66125,13 @@
       <c r="E21">
         <v>67</v>
       </c>
-      <c r="I21" s="103">
+      <c r="I21" s="83">
         <v>1.06</v>
       </c>
-      <c r="J21" s="103">
+      <c r="J21" s="83">
         <v>1.05</v>
       </c>
-      <c r="K21" s="103">
+      <c r="K21" s="83">
         <v>1.07</v>
       </c>
       <c r="N21">
@@ -66131,7 +66146,7 @@
       <c r="T21">
         <v>5190</v>
       </c>
-      <c r="U21" s="106">
+      <c r="U21" s="86">
         <v>1477</v>
       </c>
       <c r="V21">
@@ -66145,7 +66160,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="96">
+      <c r="A22" s="79">
         <v>43911</v>
       </c>
       <c r="B22" t="s">
@@ -66160,13 +66175,13 @@
       <c r="E22">
         <v>84</v>
       </c>
-      <c r="I22" s="103">
+      <c r="I22" s="83">
         <v>0.97</v>
       </c>
-      <c r="J22" s="103">
+      <c r="J22" s="83">
         <v>0.97</v>
       </c>
-      <c r="K22" s="103">
+      <c r="K22" s="83">
         <v>0.98</v>
       </c>
       <c r="N22">
@@ -66181,7 +66196,7 @@
       <c r="T22">
         <v>5001</v>
       </c>
-      <c r="U22" s="106">
+      <c r="U22" s="86">
         <v>1985</v>
       </c>
       <c r="V22">
@@ -66195,7 +66210,7 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="96">
+      <c r="A23" s="79">
         <v>43912</v>
       </c>
       <c r="B23" t="s">
@@ -66210,13 +66225,13 @@
       <c r="E23">
         <v>94</v>
       </c>
-      <c r="I23" s="103">
+      <c r="I23" s="83">
         <v>0.87</v>
       </c>
-      <c r="J23" s="103">
+      <c r="J23" s="83">
         <v>0.86</v>
       </c>
-      <c r="K23" s="103">
+      <c r="K23" s="83">
         <v>0.88</v>
       </c>
       <c r="N23">
@@ -66231,7 +66246,7 @@
       <c r="T23">
         <v>4645</v>
       </c>
-      <c r="U23" s="106">
+      <c r="U23" s="86">
         <v>3070</v>
       </c>
       <c r="V23">
@@ -66245,7 +66260,7 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="96">
+      <c r="A24" s="79">
         <v>43913</v>
       </c>
       <c r="B24" t="s">
@@ -66260,13 +66275,13 @@
       <c r="E24">
         <v>123</v>
       </c>
-      <c r="I24" s="103">
+      <c r="I24" s="83">
         <v>0.88</v>
       </c>
-      <c r="J24" s="103">
+      <c r="J24" s="83">
         <v>0.88</v>
       </c>
-      <c r="K24" s="103">
+      <c r="K24" s="83">
         <v>0.89</v>
       </c>
       <c r="N24">
@@ -66281,7 +66296,7 @@
       <c r="T24">
         <v>4749</v>
       </c>
-      <c r="U24" s="106">
+      <c r="U24" s="86">
         <v>2993</v>
       </c>
       <c r="V24">
@@ -66295,7 +66310,7 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="96">
+      <c r="A25" s="79">
         <v>43914</v>
       </c>
       <c r="B25" t="s">
@@ -66310,13 +66325,13 @@
       <c r="E25">
         <v>157</v>
       </c>
-      <c r="I25" s="103">
+      <c r="I25" s="83">
         <v>0.86</v>
       </c>
-      <c r="J25" s="103">
+      <c r="J25" s="83">
         <v>0.85</v>
       </c>
-      <c r="K25" s="103">
+      <c r="K25" s="83">
         <v>0.87</v>
       </c>
       <c r="N25">
@@ -66331,7 +66346,7 @@
       <c r="T25">
         <v>4466</v>
       </c>
-      <c r="U25" s="106">
+      <c r="U25" s="86">
         <v>4528</v>
       </c>
       <c r="V25">
@@ -66345,7 +66360,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="96">
+      <c r="A26" s="79">
         <v>43915</v>
       </c>
       <c r="B26" t="s">
@@ -66360,13 +66375,13 @@
       <c r="E26">
         <v>206</v>
       </c>
-      <c r="I26" s="103">
+      <c r="I26" s="83">
         <v>0.89</v>
       </c>
-      <c r="J26" s="103">
+      <c r="J26" s="83">
         <v>0.88</v>
       </c>
-      <c r="K26" s="103">
+      <c r="K26" s="83">
         <v>0.89</v>
       </c>
       <c r="N26">
@@ -66381,7 +66396,7 @@
       <c r="T26">
         <v>4437</v>
       </c>
-      <c r="U26" s="106">
+      <c r="U26" s="86">
         <v>2365</v>
       </c>
       <c r="V26">
@@ -66395,7 +66410,7 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="96">
+      <c r="A27" s="79">
         <v>43916</v>
       </c>
       <c r="B27" t="s">
@@ -66410,13 +66425,13 @@
       <c r="E27">
         <v>267</v>
       </c>
-      <c r="I27" s="103">
+      <c r="I27" s="83">
         <v>0.96</v>
       </c>
-      <c r="J27" s="103">
+      <c r="J27" s="83">
         <v>0.95</v>
       </c>
-      <c r="K27" s="103">
+      <c r="K27" s="83">
         <v>0.97</v>
       </c>
       <c r="N27">
@@ -66431,7 +66446,7 @@
       <c r="T27">
         <v>4473</v>
       </c>
-      <c r="U27" s="106">
+      <c r="U27" s="86">
         <v>2660</v>
       </c>
       <c r="V27">
@@ -66445,7 +66460,7 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="96">
+      <c r="A28" s="79">
         <v>43917</v>
       </c>
       <c r="B28" t="s">
@@ -66460,13 +66475,13 @@
       <c r="E28">
         <v>342</v>
       </c>
-      <c r="I28" s="103">
+      <c r="I28" s="83">
         <v>0.89</v>
       </c>
-      <c r="J28" s="103">
+      <c r="J28" s="83">
         <v>0.88</v>
       </c>
-      <c r="K28" s="103">
+      <c r="K28" s="83">
         <v>0.9</v>
       </c>
       <c r="N28">
@@ -66481,7 +66496,7 @@
       <c r="T28">
         <v>4210</v>
       </c>
-      <c r="U28" s="106">
+      <c r="U28" s="86">
         <v>4183</v>
       </c>
       <c r="V28">
@@ -66495,7 +66510,7 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="96">
+      <c r="A29" s="79">
         <v>43918</v>
       </c>
       <c r="B29" t="s">
@@ -66510,13 +66525,13 @@
       <c r="E29">
         <v>433</v>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="83">
         <v>0.93</v>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="83">
         <v>0.92</v>
       </c>
-      <c r="K29" s="103">
+      <c r="K29" s="83">
         <v>0.94</v>
       </c>
       <c r="N29">
@@ -66531,7 +66546,7 @@
       <c r="T29">
         <v>4155</v>
       </c>
-      <c r="U29" s="106">
+      <c r="U29" s="86">
         <v>3930</v>
       </c>
       <c r="V29">
@@ -66545,7 +66560,7 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="96">
+      <c r="A30" s="79">
         <v>43919</v>
       </c>
       <c r="B30" t="s">
@@ -66560,13 +66575,13 @@
       <c r="E30">
         <v>533</v>
       </c>
-      <c r="I30" s="103">
+      <c r="I30" s="83">
         <v>0.88</v>
       </c>
-      <c r="J30" s="103">
+      <c r="J30" s="83">
         <v>0.87</v>
       </c>
-      <c r="K30" s="103">
+      <c r="K30" s="83">
         <v>0.89</v>
       </c>
       <c r="N30">
@@ -66581,7 +66596,7 @@
       <c r="T30">
         <v>3894</v>
       </c>
-      <c r="U30" s="106">
+      <c r="U30" s="86">
         <v>4337</v>
       </c>
       <c r="V30">
@@ -66595,7 +66610,7 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="96">
+      <c r="A31" s="79">
         <v>43920</v>
       </c>
       <c r="B31" t="s">
@@ -66610,13 +66625,13 @@
       <c r="E31">
         <v>645</v>
       </c>
-      <c r="I31" s="103">
+      <c r="I31" s="83">
         <v>0.89</v>
       </c>
-      <c r="J31" s="103">
+      <c r="J31" s="83">
         <v>0.88</v>
       </c>
-      <c r="K31" s="103">
+      <c r="K31" s="83">
         <v>0.9</v>
       </c>
       <c r="N31">
@@ -66631,7 +66646,7 @@
       <c r="T31">
         <v>3968</v>
       </c>
-      <c r="U31" s="106">
+      <c r="U31" s="86">
         <v>6615</v>
       </c>
       <c r="V31">
@@ -66645,7 +66660,7 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="96">
+      <c r="A32" s="79">
         <v>43921</v>
       </c>
       <c r="B32" t="s">
@@ -66660,13 +66675,13 @@
       <c r="E32">
         <v>775</v>
       </c>
-      <c r="I32" s="103">
+      <c r="I32" s="83">
         <v>0.91</v>
       </c>
-      <c r="J32" s="103">
+      <c r="J32" s="83">
         <v>0.9</v>
       </c>
-      <c r="K32" s="103">
+      <c r="K32" s="83">
         <v>0.92</v>
       </c>
       <c r="N32">
@@ -66681,7 +66696,7 @@
       <c r="T32">
         <v>3848</v>
       </c>
-      <c r="U32" s="106">
+      <c r="U32" s="86">
         <v>6933</v>
       </c>
       <c r="V32">
@@ -66695,7 +66710,7 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="96">
+      <c r="A33" s="79">
         <v>43922</v>
       </c>
       <c r="B33" t="s">
@@ -66710,13 +66725,13 @@
       <c r="E33">
         <v>920</v>
       </c>
-      <c r="I33" s="103">
+      <c r="I33" s="83">
         <v>0.93</v>
       </c>
-      <c r="J33" s="103">
+      <c r="J33" s="83">
         <v>0.92</v>
       </c>
-      <c r="K33" s="103">
+      <c r="K33" s="83">
         <v>0.94</v>
       </c>
       <c r="N33">
@@ -66731,7 +66746,7 @@
       <c r="T33">
         <v>3873</v>
       </c>
-      <c r="U33" s="106">
+      <c r="U33" s="86">
         <v>6824</v>
       </c>
       <c r="V33">
@@ -66745,7 +66760,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="96">
+      <c r="A34" s="79">
         <v>43923</v>
       </c>
       <c r="B34" t="s">
@@ -66760,13 +66775,13 @@
       <c r="E34">
         <v>1107</v>
       </c>
-      <c r="I34" s="103">
+      <c r="I34" s="83">
         <v>1.02</v>
       </c>
-      <c r="J34" s="103">
+      <c r="J34" s="83">
         <v>1.01</v>
       </c>
-      <c r="K34" s="103">
+      <c r="K34" s="83">
         <v>1.03</v>
       </c>
       <c r="N34">
@@ -66781,7 +66796,7 @@
       <c r="T34">
         <v>3974</v>
       </c>
-      <c r="U34" s="106">
+      <c r="U34" s="86">
         <v>4400</v>
       </c>
       <c r="V34">
@@ -66795,7 +66810,7 @@
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="96">
+      <c r="A35" s="79">
         <v>43924</v>
       </c>
       <c r="B35" t="s">
@@ -66810,13 +66825,13 @@
       <c r="E35">
         <v>1275</v>
       </c>
-      <c r="I35" s="103">
+      <c r="I35" s="83">
         <v>0.96</v>
       </c>
-      <c r="J35" s="103">
+      <c r="J35" s="83">
         <v>0.95</v>
       </c>
-      <c r="K35" s="103">
+      <c r="K35" s="83">
         <v>0.97</v>
       </c>
       <c r="N35">
@@ -66831,7 +66846,7 @@
       <c r="T35">
         <v>3823</v>
       </c>
-      <c r="U35" s="106">
+      <c r="U35" s="86">
         <v>4790</v>
       </c>
       <c r="V35">
@@ -66845,7 +66860,7 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="96">
+      <c r="A36" s="79">
         <v>43925</v>
       </c>
       <c r="B36" t="s">
@@ -66860,13 +66875,13 @@
       <c r="E36">
         <v>1444</v>
       </c>
-      <c r="I36" s="103">
+      <c r="I36" s="83">
         <v>0.96</v>
       </c>
-      <c r="J36" s="103">
+      <c r="J36" s="83">
         <v>0.94</v>
       </c>
-      <c r="K36" s="103">
+      <c r="K36" s="83">
         <v>0.97</v>
       </c>
       <c r="N36">
@@ -66881,7 +66896,7 @@
       <c r="T36">
         <v>3681</v>
       </c>
-      <c r="U36" s="106">
+      <c r="U36" s="86">
         <v>4923</v>
       </c>
       <c r="V36">
@@ -66895,7 +66910,7 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="96">
+      <c r="A37" s="79">
         <v>43926</v>
       </c>
       <c r="B37" t="s">
@@ -66910,13 +66925,13 @@
       <c r="E37">
         <v>1584</v>
       </c>
-      <c r="I37" s="103">
+      <c r="I37" s="83">
         <v>0.87</v>
       </c>
-      <c r="J37" s="103">
+      <c r="J37" s="83">
         <v>0.86</v>
       </c>
-      <c r="K37" s="103">
+      <c r="K37" s="83">
         <v>0.88</v>
       </c>
       <c r="N37">
@@ -66931,7 +66946,7 @@
       <c r="T37">
         <v>3365</v>
       </c>
-      <c r="U37" s="106">
+      <c r="U37" s="86">
         <v>6064</v>
       </c>
       <c r="V37">
@@ -66945,7 +66960,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="96">
+      <c r="A38" s="79">
         <v>43927</v>
       </c>
       <c r="B38" t="s">
@@ -66960,13 +66975,13 @@
       <c r="E38">
         <v>1810</v>
       </c>
-      <c r="I38" s="103">
+      <c r="I38" s="83">
         <v>0.82</v>
       </c>
-      <c r="J38" s="103">
+      <c r="J38" s="83">
         <v>0.81</v>
       </c>
-      <c r="K38" s="103">
+      <c r="K38" s="83">
         <v>0.83</v>
       </c>
       <c r="N38">
@@ -66981,7 +66996,7 @@
       <c r="T38">
         <v>3269</v>
       </c>
-      <c r="U38" s="106">
+      <c r="U38" s="86">
         <v>6922</v>
       </c>
       <c r="V38">
@@ -66995,7 +67010,7 @@
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="96">
+      <c r="A39" s="79">
         <v>43928</v>
       </c>
       <c r="B39" t="s">
@@ -67010,13 +67025,13 @@
       <c r="E39">
         <v>2016</v>
       </c>
-      <c r="I39" s="103">
+      <c r="I39" s="83">
         <v>0.81</v>
       </c>
-      <c r="J39" s="103">
+      <c r="J39" s="83">
         <v>0.8</v>
       </c>
-      <c r="K39" s="103">
+      <c r="K39" s="83">
         <v>0.82</v>
       </c>
       <c r="N39">
@@ -67031,7 +67046,7 @@
       <c r="T39">
         <v>3108</v>
       </c>
-      <c r="U39" s="106">
+      <c r="U39" s="86">
         <v>6365</v>
       </c>
       <c r="V39">
@@ -67045,7 +67060,7 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="96">
+      <c r="A40" s="79">
         <v>43929</v>
       </c>
       <c r="B40" t="s">
@@ -67060,13 +67075,13 @@
       <c r="E40">
         <v>2349</v>
       </c>
-      <c r="I40" s="103">
+      <c r="I40" s="83">
         <v>0.83</v>
       </c>
-      <c r="J40" s="103">
+      <c r="J40" s="83">
         <v>0.82</v>
       </c>
-      <c r="K40" s="103">
+      <c r="K40" s="83">
         <v>0.85</v>
       </c>
       <c r="N40">
@@ -67081,7 +67096,7 @@
       <c r="T40">
         <v>3072</v>
       </c>
-      <c r="U40" s="106">
+      <c r="U40" s="86">
         <v>4933</v>
       </c>
       <c r="V40">
@@ -67095,7 +67110,7 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="96">
+      <c r="A41" s="79">
         <v>43930</v>
       </c>
       <c r="B41" t="s">
@@ -67110,13 +67125,13 @@
       <c r="E41">
         <v>2607</v>
       </c>
-      <c r="I41" s="103">
+      <c r="I41" s="83">
         <v>0.91</v>
       </c>
-      <c r="J41" s="103">
+      <c r="J41" s="83">
         <v>0.89</v>
       </c>
-      <c r="K41" s="103">
+      <c r="K41" s="83">
         <v>0.92</v>
       </c>
       <c r="N41">
@@ -67131,7 +67146,7 @@
       <c r="T41">
         <v>3062</v>
       </c>
-      <c r="U41" s="106">
+      <c r="U41" s="86">
         <v>4031</v>
       </c>
       <c r="V41">
@@ -67145,7 +67160,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="96">
+      <c r="A42" s="79">
         <v>43931</v>
       </c>
       <c r="B42" t="s">
@@ -67160,13 +67175,13 @@
       <c r="E42">
         <v>2767</v>
       </c>
-      <c r="I42" s="103">
+      <c r="I42" s="83">
         <v>0.86</v>
       </c>
-      <c r="J42" s="103">
+      <c r="J42" s="83">
         <v>0.84</v>
       </c>
-      <c r="K42" s="103">
+      <c r="K42" s="83">
         <v>0.87</v>
       </c>
       <c r="N42">
@@ -67181,7 +67196,7 @@
       <c r="T42">
         <v>2797</v>
       </c>
-      <c r="U42" s="106">
+      <c r="U42" s="86">
         <v>3251</v>
       </c>
       <c r="V42">
@@ -67195,7 +67210,7 @@
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="96">
+      <c r="A43" s="79">
         <v>43932</v>
       </c>
       <c r="B43" t="s">
@@ -67210,13 +67225,13 @@
       <c r="E43">
         <v>2736</v>
       </c>
-      <c r="I43" s="103">
+      <c r="I43" s="83">
         <v>0.81</v>
       </c>
-      <c r="J43" s="103">
+      <c r="J43" s="83">
         <v>0.79</v>
       </c>
-      <c r="K43" s="103">
+      <c r="K43" s="83">
         <v>0.83</v>
       </c>
       <c r="N43">
@@ -67231,7 +67246,7 @@
       <c r="T43">
         <v>2531</v>
       </c>
-      <c r="U43" s="106">
+      <c r="U43" s="86">
         <v>4289</v>
       </c>
       <c r="V43">
@@ -67245,7 +67260,7 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="96">
+      <c r="A44" s="79">
         <v>43933</v>
       </c>
       <c r="B44" t="s">
@@ -67260,13 +67275,13 @@
       <c r="E44">
         <v>3022</v>
       </c>
-      <c r="I44" s="103">
+      <c r="I44" s="83">
         <v>0.75</v>
       </c>
-      <c r="J44" s="103">
+      <c r="J44" s="83">
         <v>0.73</v>
       </c>
-      <c r="K44" s="103">
+      <c r="K44" s="83">
         <v>0.77</v>
       </c>
       <c r="N44">
@@ -67281,7 +67296,7 @@
       <c r="T44">
         <v>2303</v>
       </c>
-      <c r="U44" s="106">
+      <c r="U44" s="86">
         <v>5633</v>
       </c>
       <c r="V44">
@@ -67295,7 +67310,7 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="96">
+      <c r="A45" s="79">
         <v>43934</v>
       </c>
       <c r="B45" t="s">
@@ -67310,13 +67325,13 @@
       <c r="E45">
         <v>3194</v>
       </c>
-      <c r="I45" s="103">
+      <c r="I45" s="83">
         <v>0.68</v>
       </c>
-      <c r="J45" s="103">
+      <c r="J45" s="83">
         <v>0.67</v>
       </c>
-      <c r="K45" s="103">
+      <c r="K45" s="83">
         <v>0.7</v>
       </c>
       <c r="N45">
@@ -67331,7 +67346,7 @@
       <c r="T45">
         <v>2107</v>
       </c>
-      <c r="U45" s="106">
+      <c r="U45" s="86">
         <v>4885</v>
       </c>
       <c r="V45">
@@ -67345,7 +67360,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="96">
+      <c r="A46" s="79">
         <v>43935</v>
       </c>
       <c r="B46" t="s">
@@ -67360,13 +67375,13 @@
       <c r="E46">
         <v>3294</v>
       </c>
-      <c r="I46" s="103">
+      <c r="I46" s="83">
         <v>0.72</v>
       </c>
-      <c r="J46" s="103">
+      <c r="J46" s="83">
         <v>0.7</v>
       </c>
-      <c r="K46" s="103">
+      <c r="K46" s="83">
         <v>0.74</v>
       </c>
       <c r="N46">
@@ -67381,7 +67396,7 @@
       <c r="T46">
         <v>2029</v>
       </c>
-      <c r="U46" s="106">
+      <c r="U46" s="86">
         <v>3990</v>
       </c>
       <c r="V46">
@@ -67395,7 +67410,7 @@
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="96">
+      <c r="A47" s="79">
         <v>43936</v>
       </c>
       <c r="B47" t="s">
@@ -67410,13 +67425,13 @@
       <c r="E47">
         <v>3804</v>
       </c>
-      <c r="I47" s="103">
+      <c r="I47" s="83">
         <v>0.79</v>
       </c>
-      <c r="J47" s="103">
+      <c r="J47" s="83">
         <v>0.77</v>
       </c>
-      <c r="K47" s="103">
+      <c r="K47" s="83">
         <v>0.81</v>
       </c>
       <c r="N47">
@@ -67431,7 +67446,7 @@
       <c r="T47">
         <v>2015</v>
       </c>
-      <c r="U47" s="106">
+      <c r="U47" s="86">
         <v>2737</v>
       </c>
       <c r="V47">
@@ -67445,7 +67460,7 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="96">
+      <c r="A48" s="79">
         <v>43937</v>
       </c>
       <c r="B48" t="s">
@@ -67460,13 +67475,13 @@
       <c r="E48">
         <v>4052</v>
       </c>
-      <c r="I48" s="103">
+      <c r="I48" s="83">
         <v>0.85</v>
       </c>
-      <c r="J48" s="103">
+      <c r="J48" s="83">
         <v>0.83</v>
       </c>
-      <c r="K48" s="103">
+      <c r="K48" s="83">
         <v>0.87</v>
       </c>
       <c r="N48">
@@ -67481,7 +67496,7 @@
       <c r="T48">
         <v>1973</v>
       </c>
-      <c r="U48" s="106">
+      <c r="U48" s="86">
         <v>2946</v>
       </c>
       <c r="V48">
@@ -67495,7 +67510,7 @@
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="96">
+      <c r="A49" s="79">
         <v>43938</v>
       </c>
       <c r="B49" t="s">
@@ -67510,13 +67525,13 @@
       <c r="E49">
         <v>4352</v>
       </c>
-      <c r="I49" s="103">
+      <c r="I49" s="83">
         <v>0.91</v>
       </c>
-      <c r="J49" s="103">
+      <c r="J49" s="83">
         <v>0.88</v>
       </c>
-      <c r="K49" s="103">
+      <c r="K49" s="83">
         <v>0.93</v>
       </c>
       <c r="N49">
@@ -67531,7 +67546,7 @@
       <c r="T49">
         <v>1917</v>
       </c>
-      <c r="U49" s="106">
+      <c r="U49" s="86">
         <v>2218</v>
       </c>
       <c r="V49">
@@ -67545,7 +67560,7 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="96">
+      <c r="A50" s="79">
         <v>43939</v>
       </c>
       <c r="B50" t="s">
@@ -67560,13 +67575,13 @@
       <c r="E50">
         <v>4459</v>
       </c>
-      <c r="I50" s="103">
+      <c r="I50" s="83">
         <v>0.88</v>
       </c>
-      <c r="J50" s="103">
+      <c r="J50" s="83">
         <v>0.85</v>
       </c>
-      <c r="K50" s="103">
+      <c r="K50" s="83">
         <v>0.9</v>
       </c>
       <c r="N50">
@@ -67581,7 +67596,7 @@
       <c r="T50">
         <v>1785</v>
       </c>
-      <c r="U50" s="106">
+      <c r="U50" s="86">
         <v>1287</v>
       </c>
       <c r="V50">
@@ -67595,7 +67610,7 @@
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="96">
+      <c r="A51" s="79">
         <v>43940</v>
       </c>
       <c r="B51" t="s">
@@ -67610,13 +67625,13 @@
       <c r="E51">
         <v>4586</v>
       </c>
-      <c r="I51" s="103">
+      <c r="I51" s="83">
         <v>0.81</v>
       </c>
-      <c r="J51" s="103">
+      <c r="J51" s="83">
         <v>0.78</v>
       </c>
-      <c r="K51" s="103">
+      <c r="K51" s="83">
         <v>0.84</v>
       </c>
       <c r="N51">
@@ -67631,7 +67646,7 @@
       <c r="T51">
         <v>1637</v>
       </c>
-      <c r="U51" s="106">
+      <c r="U51" s="86">
         <v>3394</v>
       </c>
       <c r="V51">
@@ -67645,7 +67660,7 @@
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="96">
+      <c r="A52" s="79">
         <v>43941</v>
       </c>
       <c r="B52" t="s">
@@ -67660,13 +67675,13 @@
       <c r="E52">
         <v>4862</v>
       </c>
-      <c r="I52" s="103">
+      <c r="I52" s="83">
         <v>0.8</v>
       </c>
-      <c r="J52" s="103">
+      <c r="J52" s="83">
         <v>0.77</v>
       </c>
-      <c r="K52" s="103">
+      <c r="K52" s="83">
         <v>0.83</v>
       </c>
       <c r="N52">
@@ -67681,7 +67696,7 @@
       <c r="T52">
         <v>1588</v>
       </c>
-      <c r="U52" s="106">
+      <c r="U52" s="86">
         <v>2945</v>
       </c>
       <c r="V52">
@@ -67695,7 +67710,7 @@
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="96">
+      <c r="A53" s="79">
         <v>43942</v>
       </c>
       <c r="B53" t="s">
@@ -67710,13 +67725,13 @@
       <c r="E53">
         <v>5033</v>
       </c>
-      <c r="I53" s="103">
+      <c r="I53" s="83">
         <v>0.78</v>
       </c>
-      <c r="J53" s="103">
+      <c r="J53" s="83">
         <v>0.75</v>
       </c>
-      <c r="K53" s="103">
+      <c r="K53" s="83">
         <v>0.81</v>
       </c>
       <c r="N53">
@@ -67731,7 +67746,7 @@
       <c r="T53">
         <v>1509</v>
       </c>
-      <c r="U53" s="106">
+      <c r="U53" s="86">
         <v>3699</v>
       </c>
       <c r="V53">
@@ -67745,7 +67760,7 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="96">
+      <c r="A54" s="79">
         <v>43943</v>
       </c>
       <c r="B54" t="s">
@@ -67760,13 +67775,13 @@
       <c r="E54">
         <v>5279</v>
       </c>
-      <c r="I54" s="103">
+      <c r="I54" s="83">
         <v>0.82</v>
       </c>
-      <c r="J54" s="103">
+      <c r="J54" s="83">
         <v>0.78</v>
       </c>
-      <c r="K54" s="103">
+      <c r="K54" s="83">
         <v>0.85</v>
       </c>
       <c r="N54">
@@ -67781,7 +67796,7 @@
       <c r="T54">
         <v>1472</v>
       </c>
-      <c r="U54" s="106">
+      <c r="U54" s="86">
         <v>1945</v>
       </c>
       <c r="V54">
@@ -67795,7 +67810,7 @@
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="96">
+      <c r="A55" s="79">
         <v>43944</v>
       </c>
       <c r="B55" t="s">
@@ -67810,13 +67825,13 @@
       <c r="E55">
         <v>5575</v>
       </c>
-      <c r="I55" s="103">
+      <c r="I55" s="83">
         <v>0.89</v>
       </c>
-      <c r="J55" s="103">
+      <c r="J55" s="83">
         <v>0.85</v>
       </c>
-      <c r="K55" s="103">
+      <c r="K55" s="83">
         <v>0.93</v>
       </c>
       <c r="N55">
@@ -67831,7 +67846,7 @@
       <c r="T55">
         <v>1468</v>
       </c>
-      <c r="U55" s="106">
+      <c r="U55" s="86">
         <v>1842</v>
       </c>
       <c r="V55">
@@ -67845,7 +67860,7 @@
       </c>
     </row>
     <row r="56" spans="1:24">
-      <c r="A56" s="96">
+      <c r="A56" s="79">
         <v>43945</v>
       </c>
       <c r="B56" t="s">
@@ -67860,13 +67875,13 @@
       <c r="E56">
         <v>5760</v>
       </c>
-      <c r="I56" s="103">
+      <c r="I56" s="83">
         <v>0.85</v>
       </c>
-      <c r="J56" s="103">
+      <c r="J56" s="83">
         <v>0.81</v>
       </c>
-      <c r="K56" s="103">
+      <c r="K56" s="83">
         <v>0.91</v>
       </c>
       <c r="N56">
@@ -67881,7 +67896,7 @@
       <c r="T56">
         <v>1368</v>
       </c>
-      <c r="U56" s="106">
+      <c r="U56" s="86">
         <v>1881</v>
       </c>
       <c r="V56">
@@ -67895,7 +67910,7 @@
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="96">
+      <c r="A57" s="79">
         <v>43946</v>
       </c>
       <c r="B57" t="s">
@@ -67910,13 +67925,13 @@
       <c r="E57">
         <v>5877</v>
       </c>
-      <c r="I57" s="103">
+      <c r="I57" s="83">
         <v>0.84</v>
       </c>
-      <c r="J57" s="103">
+      <c r="J57" s="83">
         <v>0.78</v>
       </c>
-      <c r="K57" s="103">
+      <c r="K57" s="83">
         <v>0.89</v>
       </c>
       <c r="N57">
@@ -67931,7 +67946,7 @@
       <c r="T57">
         <v>1283</v>
       </c>
-      <c r="U57" s="106">
+      <c r="U57" s="86">
         <v>1226</v>
       </c>
       <c r="V57">
@@ -67945,7 +67960,7 @@
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="96">
+      <c r="A58" s="79">
         <v>43947</v>
       </c>
       <c r="B58" t="s">
@@ -67960,13 +67975,13 @@
       <c r="E58">
         <v>5976</v>
       </c>
-      <c r="I58" s="103">
+      <c r="I58" s="83">
         <v>0.79</v>
       </c>
-      <c r="J58" s="103">
+      <c r="J58" s="83">
         <v>0.74</v>
       </c>
-      <c r="K58" s="103">
+      <c r="K58" s="83">
         <v>0.84</v>
       </c>
       <c r="N58">
@@ -67981,7 +67996,7 @@
       <c r="T58">
         <v>1183</v>
       </c>
-      <c r="U58" s="106">
+      <c r="U58" s="86">
         <v>2357</v>
       </c>
       <c r="V58">
@@ -67995,7 +68010,7 @@
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="96">
+      <c r="A59" s="79">
         <v>43948</v>
       </c>
       <c r="B59" t="s">
@@ -68010,13 +68025,13 @@
       <c r="E59">
         <v>6126</v>
       </c>
-      <c r="I59" s="103">
+      <c r="I59" s="83">
         <v>0.75</v>
       </c>
-      <c r="J59" s="103">
+      <c r="J59" s="83">
         <v>0.69</v>
       </c>
-      <c r="K59" s="103">
+      <c r="K59" s="83">
         <v>0.81</v>
       </c>
       <c r="N59">
@@ -68031,7 +68046,7 @@
       <c r="T59">
         <v>1135</v>
       </c>
-      <c r="U59" s="106">
+      <c r="U59" s="86">
         <v>2481</v>
       </c>
       <c r="V59">
@@ -68045,7 +68060,7 @@
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="96">
+      <c r="A60" s="79">
         <v>43949</v>
       </c>
       <c r="B60" t="s">
@@ -68060,13 +68075,13 @@
       <c r="E60">
         <v>6314</v>
       </c>
-      <c r="I60" s="103">
+      <c r="I60" s="83">
         <v>0.77</v>
       </c>
-      <c r="J60" s="103">
+      <c r="J60" s="83">
         <v>0.7</v>
       </c>
-      <c r="K60" s="103">
+      <c r="K60" s="83">
         <v>0.86</v>
       </c>
       <c r="N60">
@@ -68081,7 +68096,7 @@
       <c r="T60">
         <v>1102</v>
       </c>
-      <c r="U60" s="106">
+      <c r="U60" s="86">
         <v>1870</v>
       </c>
       <c r="V60">
@@ -68095,7 +68110,7 @@
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="96">
+      <c r="A61" s="79">
         <v>43950</v>
       </c>
       <c r="B61" t="s">
@@ -68110,13 +68125,13 @@
       <c r="E61">
         <v>6467</v>
       </c>
-      <c r="I61" s="103">
+      <c r="I61" s="83">
         <v>0.78</v>
       </c>
-      <c r="J61" s="103">
+      <c r="J61" s="83">
         <v>0.68</v>
       </c>
-      <c r="K61" s="103">
+      <c r="K61" s="83">
         <v>0.87</v>
       </c>
       <c r="N61">
@@ -68131,7 +68146,7 @@
       <c r="T61">
         <v>1052</v>
       </c>
-      <c r="U61" s="106">
+      <c r="U61" s="86">
         <v>1514</v>
       </c>
       <c r="V61">
@@ -68145,7 +68160,7 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="96">
+      <c r="A62" s="79">
         <v>43951</v>
       </c>
       <c r="B62" t="s">
@@ -68160,13 +68175,13 @@
       <c r="E62">
         <v>6623</v>
       </c>
-      <c r="I62" s="103">
+      <c r="I62" s="83">
         <v>0.81</v>
       </c>
-      <c r="J62" s="103">
+      <c r="J62" s="83">
         <v>0.68</v>
       </c>
-      <c r="K62" s="103">
+      <c r="K62" s="83">
         <v>0.92</v>
       </c>
       <c r="N62">
@@ -68181,7 +68196,7 @@
       <c r="T62">
         <v>1009</v>
       </c>
-      <c r="U62" s="106">
+      <c r="U62" s="86">
         <v>1257</v>
       </c>
       <c r="V62">
@@ -68195,7 +68210,7 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="17" thickBot="1">
-      <c r="A63" s="96">
+      <c r="A63" s="79">
         <v>43952</v>
       </c>
       <c r="B63" t="s">
@@ -68210,13 +68225,13 @@
       <c r="E63">
         <v>6736</v>
       </c>
-      <c r="I63" s="103">
+      <c r="I63" s="83">
         <v>0.71</v>
       </c>
-      <c r="J63" s="103">
+      <c r="J63" s="83">
         <v>0.59</v>
       </c>
-      <c r="K63" s="103">
+      <c r="K63" s="83">
         <v>0.82</v>
       </c>
       <c r="N63">
@@ -68231,7 +68246,7 @@
       <c r="T63">
         <v>872</v>
       </c>
-      <c r="U63" s="107">
+      <c r="U63" s="87">
         <v>988</v>
       </c>
       <c r="V63">
@@ -68245,7 +68260,7 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="96">
+      <c r="A64" s="79">
         <v>43953</v>
       </c>
       <c r="B64" t="s">
@@ -68265,7 +68280,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="96">
+      <c r="A65" s="79">
         <v>43954</v>
       </c>
       <c r="B65" t="s">
@@ -68282,7 +68297,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="96">
+      <c r="A66" s="79">
         <v>43955</v>
       </c>
       <c r="B66" t="s">
@@ -68299,7 +68314,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="96">
+      <c r="A67" s="79">
         <v>43956</v>
       </c>
       <c r="B67" t="s">
@@ -68316,7 +68331,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="96"/>
+      <c r="A68" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
